--- a/Diagrammer/Burndown for WHAT.xlsx
+++ b/Diagrammer/Burndown for WHAT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casper\Desktop\GitHub Repositorys\3-sem.-eksamen-SWD\Diagrammer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casper\Desktop\GitHub Repositorys\3.SemesterSWD-Eksamen.Final\Diagrammer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CABE830-D5CF-45AF-A4F6-C338AA2A0D00}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32351A04-82A8-492D-A6E7-B7B5BC452852}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{0E5311F3-3848-4F1F-B0A1-818DE07B362D}"/>
+    <workbookView xWindow="7905" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{0E5311F3-3848-4F1F-B0A1-818DE07B362D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Est.</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Resterende min</t>
+  </si>
+  <si>
+    <t>Day</t>
   </si>
 </sst>
 </file>
@@ -259,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -271,6 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1427,16 +1431,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1761,10 +1765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748780FD-D025-4A00-ABEB-C79BF8E25DEA}">
-  <dimension ref="B3:O31"/>
+  <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,7 +1778,15 @@
     <col min="12" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1795,9 +1807,6 @@
         <v>1</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="K3" s="2" t="s">
         <v>30</v>
       </c>
@@ -1807,10 +1816,16 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1840,8 +1855,14 @@
       <c r="L4" s="9">
         <v>1530</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -1871,8 +1892,15 @@
         <f>SUM(L4-C4)</f>
         <v>1440</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f>SUM(P4-630)</f>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -1902,8 +1930,15 @@
         <f>SUM(L5-(C5+C6))</f>
         <v>1200</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <f>SUM(P4/3)</f>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -1927,8 +1962,15 @@
         <f>SUM(L6-(C7+C8+C9))</f>
         <v>810</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <f>SUM(P6-630)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -1953,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1975,7 +2017,7 @@
       </c>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -1997,7 +2039,7 @@
       </c>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2011,7 +2053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2025,7 +2067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -2039,7 +2081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -2053,7 +2095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -2064,7 +2106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>15</v>
       </c>

--- a/Diagrammer/Burndown for WHAT.xlsx
+++ b/Diagrammer/Burndown for WHAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casper\Desktop\GitHub Repositorys\3.SemesterSWD-Eksamen.Final\Diagrammer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32351A04-82A8-492D-A6E7-B7B5BC452852}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AAFA95-0F08-4B0C-95B5-A6877AF9FAD7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7905" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{0E5311F3-3848-4F1F-B0A1-818DE07B362D}"/>
+    <workbookView xWindow="8835" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{0E5311F3-3848-4F1F-B0A1-818DE07B362D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -1765,10 +1765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748780FD-D025-4A00-ABEB-C79BF8E25DEA}">
-  <dimension ref="B2:Q31"/>
+  <dimension ref="B2:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2223,31 +2223,31 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="10" t="s">
+    <row r="35" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C35" s="10">
         <f>SUM(C4:C27)/60</f>
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="36" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>34</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38">
         <f>SUM(62*60)-(C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14)</f>
         <v>2370</v>
       </c>
-      <c r="C31">
-        <f>SUM(B31/60)</f>
+      <c r="C38">
+        <f>SUM(B38/60)</f>
         <v>39.5</v>
       </c>
     </row>

--- a/Diagrammer/Burndown for WHAT.xlsx
+++ b/Diagrammer/Burndown for WHAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casper\Desktop\GitHub Repositorys\3.SemesterSWD-Eksamen.Final\Diagrammer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AAFA95-0F08-4B0C-95B5-A6877AF9FAD7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A502851B-72B4-48C2-A694-26378D172077}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8835" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{0E5311F3-3848-4F1F-B0A1-818DE07B362D}"/>
+    <workbookView xWindow="9765" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{0E5311F3-3848-4F1F-B0A1-818DE07B362D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -884,7 +884,594 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Burndown</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="da-DK" baseline="0"/>
+              <a:t> chart for sprint 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Velocity</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ark1'!$O$4:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$P$4:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9265-46A4-BF31-45FC0069C167}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ark1'!$O$4:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$Q$4:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9265-46A4-BF31-45FC0069C167}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1412689775"/>
+        <c:axId val="1479948271"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1412689775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Dage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1479948271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1479948271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Minutter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1412689775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1427,20 +2014,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1460,6 +2550,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78C4DBD-D1C7-482E-9425-62458AD711F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1767,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748780FD-D025-4A00-ABEB-C79BF8E25DEA}">
   <dimension ref="B2:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,6 +2985,10 @@
         <v>0</v>
       </c>
       <c r="P4">
+        <f>SUM(31.5*60)</f>
+        <v>1890</v>
+      </c>
+      <c r="Q4">
         <v>1890</v>
       </c>
     </row>
@@ -1899,6 +3029,10 @@
         <f>SUM(P4-630)</f>
         <v>1260</v>
       </c>
+      <c r="Q5">
+        <f>SUM(Q4-(3.5+1+1.25)*60)</f>
+        <v>1545</v>
+      </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1934,8 +3068,12 @@
         <v>2</v>
       </c>
       <c r="P6">
-        <f>SUM(P4/3)</f>
+        <f t="shared" ref="P6:P7" si="1">SUM(P5-630)</f>
         <v>630</v>
+      </c>
+      <c r="Q6">
+        <f>SUM(Q5-(1+3.75+1+2+2+1.75+2.25+2.25)*60)</f>
+        <v>585</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
@@ -1966,7 +3104,11 @@
         <v>3</v>
       </c>
       <c r="P7">
-        <f>SUM(P6-630)</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f>SUM(Q6-(2.25+1+1+5.5)*60)</f>
         <v>0</v>
       </c>
     </row>
